--- a/TY1475_RX_HIGH_R.X/TY1475-HIGH_動作表.xlsx
+++ b/TY1475_RX_HIGH_R.X/TY1475-HIGH_動作表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,94 @@
   </si>
   <si>
     <t>TY1475 高配測試表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>※遠燈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>晝行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>行車</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>行車</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忽略晝行信號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)(14)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1132,8 +1220,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="3"/>
@@ -1307,6 +1394,11 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
